--- a/biology/Botanique/Macropanax/Macropanax.xlsx
+++ b/biology/Botanique/Macropanax/Macropanax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macropanax est un genre de plantes de la famille des Araliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 août 2020)[3] et The Plant List            (8 août 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 août 2020) et The Plant List            (8 août 2020) :
 Macropanax baviensis (R.Vig.) C.B.Shang
 Macropanax chienii G.Hoo
 Macropanax concinnus Miq.
@@ -531,7 +545,7 @@
 Macropanax skvortsovii Ha
 Macropanax undulatus (Wall. ex G.Don) Seem.
 Macropanax vidalii C.B.Shang
-Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2020)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2020) :
 Macropanax baviensis (R.Vig.) C.B.Shang, Bull. Mus. Natl. Hist. Nat., B (1983)
 Macropanax chienii G.Hoo, Acta Phytotax. Sin. (1965)
 Macropanax concinnus Miq. (1864)
@@ -550,7 +564,7 @@
 Macropanax skvortsovii Ha (1984)
 Macropanax undulatus (Wall. ex G.Don) Seem. (1864)
 Macropanax vidalii C.B.Shang, Bull. Mus. Natl. Hist. Nat., B (1983)
-Selon Tropicos                                           (8 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Macropanax baviensis (R. Vig.) C.B. Shang
 Macropanax chienii G. Hoo
 Macropanax concinnum Miq.
